--- a/utils/localisation_script/excel_to_json/mr/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/mr/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/mr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/mr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C2920-F397-8D40-9B96-64C8A268AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7CA5B3-EBAC-3142-9937-F91CA4F01C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Resume</t>
-  </si>
-  <si>
-    <t>Start typing here</t>
   </si>
   <si>
     <t>*required</t>
@@ -289,10 +286,13 @@
     <t>इथे टाईप करायला सुरुवात करा</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>पुढील कार्यवाहीसाठी तुम्हांला&lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; अटीं आणि शर्तीं&lt;/a&gt; मान्य आहे असे समजण्यात येईल</t>
+    <t>पुढील कार्यवाहीसाठी तुम्हांला&lt;a href="../terms-and-conditions.html" target="_blank"&gt; अटीं आणि शर्तीं&lt;/a&gt; मान्य आहे असे समजण्यात येईल</t>
+  </si>
+  <si>
+    <t>Start typing here...</t>
   </si>
 </sst>
 </file>
@@ -641,14 +641,15 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="130.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" style="10" customWidth="1"/>
     <col min="6" max="6" width="44.5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" hidden="1" customWidth="1"/>
@@ -687,7 +688,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -756,7 +757,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -789,7 +790,7 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -822,7 +823,7 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -855,7 +856,7 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1115,11 +1116,11 @@
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1148,11 +1149,11 @@
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -1181,11 +1182,11 @@
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -1214,11 +1215,11 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1247,11 +1248,11 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1280,11 +1281,11 @@
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1313,11 +1314,11 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -1346,11 +1347,11 @@
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1379,11 +1380,11 @@
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -1412,11 +1413,11 @@
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1445,11 +1446,11 @@
     <row r="25" spans="1:27" ht="15">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1478,11 +1479,11 @@
     <row r="26" spans="1:27" ht="15">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1511,11 +1512,11 @@
     <row r="27" spans="1:27" ht="15">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1544,11 +1545,11 @@
     <row r="28" spans="1:27" ht="15">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -1577,11 +1578,11 @@
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1610,11 +1611,11 @@
     <row r="30" spans="1:27" ht="15">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1643,11 +1644,11 @@
     <row r="31" spans="1:27" ht="15">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1676,11 +1677,11 @@
     <row r="32" spans="1:27" ht="15">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1709,11 +1710,11 @@
     <row r="33" spans="1:27" ht="108.75" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1775,11 +1776,11 @@
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1808,11 +1809,11 @@
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -1841,11 +1842,11 @@
     <row r="37" spans="1:27" ht="15">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -1878,7 +1879,7 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -1907,11 +1908,11 @@
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="15"/>
       <c r="B39" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -1940,11 +1941,11 @@
     <row r="40" spans="1:27" ht="15">
       <c r="A40" s="15"/>
       <c r="B40" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -1973,11 +1974,11 @@
     <row r="41" spans="1:27" ht="15">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -2006,11 +2007,11 @@
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="15"/>
       <c r="B42" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -2039,11 +2040,11 @@
     <row r="43" spans="1:27" ht="15">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -2072,11 +2073,11 @@
     <row r="44" spans="1:27" ht="15">
       <c r="A44" s="15"/>
       <c r="B44" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -2105,11 +2106,11 @@
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2142,7 +2143,7 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -2171,11 +2172,11 @@
     <row r="47" spans="1:27" ht="15">
       <c r="A47" s="15"/>
       <c r="B47" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
